--- a/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>

--- a/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
@@ -492,11 +492,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45690</v>
+        <v>45697</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -530,11 +530,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45697</v>
+        <v>45704</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -568,11 +568,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -606,11 +606,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45711</v>
+        <v>45718</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -644,11 +644,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45718</v>
+        <v>45725</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -682,11 +682,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45725</v>
+        <v>45732</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -720,11 +720,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45732</v>
+        <v>45739</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -758,11 +758,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45739</v>
+        <v>45746</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -796,11 +796,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45746</v>
+        <v>45753</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -834,11 +834,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45753</v>
+        <v>45760</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -872,11 +872,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -910,11 +910,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -948,11 +948,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -986,11 +986,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1024,11 +1024,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1062,11 +1062,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>

--- a/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
@@ -492,11 +492,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W6</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45697</v>
+        <v>45704</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -530,11 +530,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45704</v>
+        <v>45711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -568,11 +568,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45711</v>
+        <v>45718</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -606,11 +606,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45718</v>
+        <v>45725</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -644,11 +644,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45725</v>
+        <v>45732</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -682,11 +682,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45732</v>
+        <v>45739</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -720,11 +720,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45739</v>
+        <v>45746</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -758,11 +758,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45746</v>
+        <v>45753</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -770,10 +770,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -796,11 +796,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45753</v>
+        <v>45760</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -834,11 +834,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45760</v>
+        <v>45767</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -872,11 +872,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45767</v>
+        <v>45774</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -910,11 +910,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45774</v>
+        <v>45781</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -948,11 +948,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1024,11 +1024,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1062,11 +1062,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>

--- a/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
+++ b/Sufficient data WITH_PO/B0DQLH22F6_fallback_WITH_PO.xlsx
@@ -492,11 +492,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W7</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45704</v>
+        <v>45718</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -530,11 +530,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W8</t>
+          <t>W10</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45711</v>
+        <v>45725</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -568,11 +568,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W9</t>
+          <t>W11</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45718</v>
+        <v>45732</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -606,11 +606,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W10</t>
+          <t>W12</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45725</v>
+        <v>45739</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -644,11 +644,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W11</t>
+          <t>W13</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45732</v>
+        <v>45746</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -682,11 +682,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W12</t>
+          <t>W14</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45739</v>
+        <v>45753</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -720,11 +720,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W13</t>
+          <t>W15</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45746</v>
+        <v>45760</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -758,11 +758,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W14</t>
+          <t>W16</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45753</v>
+        <v>45767</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -796,11 +796,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W15</t>
+          <t>W17</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45760</v>
+        <v>45774</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -834,11 +834,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W16</t>
+          <t>W18</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45767</v>
+        <v>45781</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -846,10 +846,10 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
         <v>9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -872,11 +872,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>W17</t>
+          <t>W19</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45774</v>
+        <v>45788</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -910,11 +910,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>W18</t>
+          <t>W20</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45781</v>
+        <v>45795</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -922,10 +922,10 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
         <v>9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -948,11 +948,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>W19</t>
+          <t>W21</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45788</v>
+        <v>45802</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
         <v>9</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -986,11 +986,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W20</t>
+          <t>W22</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1024,11 +1024,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>W21</t>
+          <t>W23</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45802</v>
+        <v>45816</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
         <v>9</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1062,11 +1062,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>W22</t>
+          <t>W24</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45809</v>
+        <v>45823</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
         <v>9</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
